--- a/九周年資料.xlsx
+++ b/九周年資料.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akira\Desktop\九周年查詢系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D8BFEB-D2E6-4FB0-A249-4C00E444AAE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61506311-24B5-45F7-A940-567385370358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2120" yWindow="2120" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="九宮格核實表" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="313">
   <si>
     <t>會員名稱</t>
   </si>
@@ -1413,11 +1413,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1639,7 +1639,7 @@
   <dimension ref="A1:M1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1701,27 +1701,29 @@
       <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="13" t="s">
         <v>312</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
+      <c r="L2" s="13" t="s">
+        <v>311</v>
+      </c>
       <c r="M2" s="1">
         <v>1</v>
       </c>
@@ -1736,22 +1738,22 @@
       <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="13" t="s">
         <v>312</v>
       </c>
       <c r="J3" s="2"/>
@@ -1771,22 +1773,22 @@
       <c r="C4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="13" t="s">
         <v>312</v>
       </c>
       <c r="J4" s="2"/>
@@ -1806,22 +1808,22 @@
       <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="13" t="s">
         <v>312</v>
       </c>
       <c r="J5" s="2"/>
@@ -1841,22 +1843,22 @@
       <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="I6" s="13" t="s">
         <v>312</v>
       </c>
       <c r="J6" s="2"/>
@@ -1876,28 +1878,28 @@
       <c r="C7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="J7" s="15" t="s">
+      <c r="J7" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="K7" s="15" t="s">
+      <c r="K7" s="13" t="s">
         <v>312</v>
       </c>
       <c r="L7" s="2"/>
@@ -1915,31 +1917,31 @@
       <c r="C8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="J8" s="15" t="s">
+      <c r="J8" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="K8" s="15" t="s">
+      <c r="K8" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="L8" s="15" t="s">
+      <c r="L8" s="13" t="s">
         <v>312</v>
       </c>
       <c r="M8" s="1">
@@ -1956,31 +1958,31 @@
       <c r="C9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="I9" s="15" t="s">
+      <c r="I9" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="J9" s="15" t="s">
+      <c r="J9" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="K9" s="15" t="s">
+      <c r="K9" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="L9" s="15" t="s">
+      <c r="L9" s="13" t="s">
         <v>312</v>
       </c>
       <c r="M9" s="1">
@@ -1997,31 +1999,31 @@
       <c r="C10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="I10" s="15" t="s">
+      <c r="I10" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="J10" s="15" t="s">
+      <c r="J10" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="K10" s="15" t="s">
+      <c r="K10" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="L10" s="15" t="s">
+      <c r="L10" s="13" t="s">
         <v>311</v>
       </c>
       <c r="M10" s="1">
@@ -2193,31 +2195,31 @@
       <c r="C18" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="G18" s="15" t="s">
+      <c r="G18" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="H18" s="15" t="s">
+      <c r="H18" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="I18" s="15" t="s">
+      <c r="I18" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="J18" s="15" t="s">
+      <c r="J18" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="K18" s="15" t="s">
+      <c r="K18" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="L18" s="15" t="s">
+      <c r="L18" s="13" t="s">
         <v>312</v>
       </c>
       <c r="M18" s="1">
@@ -13102,7 +13104,7 @@
     <col min="10" max="18" width="3.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>54</v>
       </c>
@@ -13160,7 +13162,7 @@
       <c r="W1" s="4"/>
       <c r="X1" s="4"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>59</v>
       </c>
@@ -13206,7 +13208,7 @@
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>59</v>
       </c>
@@ -13252,7 +13254,7 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>67</v>
       </c>
@@ -13296,7 +13298,7 @@
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>71</v>
       </c>
@@ -13340,7 +13342,7 @@
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>75</v>
       </c>
@@ -13386,7 +13388,7 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>80</v>
       </c>
@@ -13428,7 +13430,7 @@
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>82</v>
       </c>
@@ -13470,7 +13472,7 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>82</v>
       </c>
@@ -13512,7 +13514,7 @@
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>82</v>
       </c>
@@ -13556,7 +13558,7 @@
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>82</v>
       </c>
@@ -13598,7 +13600,7 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>82</v>
       </c>
@@ -13640,7 +13642,7 @@
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>82</v>
       </c>
@@ -13682,7 +13684,7 @@
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>82</v>
       </c>
@@ -13724,7 +13726,7 @@
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>82</v>
       </c>
@@ -13768,7 +13770,7 @@
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>95</v>
       </c>
@@ -13810,7 +13812,7 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>95</v>
       </c>
@@ -13854,7 +13856,7 @@
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>101</v>
       </c>
@@ -13896,7 +13898,7 @@
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>103</v>
       </c>
@@ -13940,7 +13942,7 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>108</v>
       </c>
@@ -13984,7 +13986,7 @@
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>111</v>
       </c>
@@ -14030,7 +14032,7 @@
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>115</v>
       </c>
@@ -14074,7 +14076,7 @@
       <c r="Y22" s="3"/>
       <c r="Z22" s="3"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>119</v>
       </c>
@@ -14116,7 +14118,7 @@
       <c r="Y23" s="3"/>
       <c r="Z23" s="3"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>123</v>
       </c>
@@ -14162,7 +14164,7 @@
       <c r="Y24" s="3"/>
       <c r="Z24" s="3"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>127</v>
       </c>
@@ -14206,7 +14208,7 @@
       <c r="Y25" s="3"/>
       <c r="Z25" s="3"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>130</v>
       </c>
@@ -14250,7 +14252,7 @@
       <c r="Y26" s="3"/>
       <c r="Z26" s="3"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>134</v>
       </c>
@@ -14292,7 +14294,7 @@
       <c r="Y27" s="3"/>
       <c r="Z27" s="3"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>138</v>
       </c>
@@ -14354,7 +14356,7 @@
       <c r="Y28" s="3"/>
       <c r="Z28" s="3"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>138</v>
       </c>
@@ -14416,7 +14418,7 @@
       <c r="Y29" s="3"/>
       <c r="Z29" s="3"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>138</v>
       </c>
@@ -14460,7 +14462,7 @@
       <c r="Y30" s="3"/>
       <c r="Z30" s="3"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>147</v>
       </c>
@@ -14504,7 +14506,7 @@
       <c r="Y31" s="3"/>
       <c r="Z31" s="3"/>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>150</v>
       </c>
@@ -14548,7 +14550,7 @@
       <c r="Y32" s="3"/>
       <c r="Z32" s="3"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -14565,7 +14567,7 @@
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -14582,7 +14584,7 @@
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -14599,7 +14601,7 @@
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -14616,7 +14618,7 @@
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -14633,7 +14635,7 @@
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -14650,7 +14652,7 @@
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -14667,7 +14669,7 @@
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -14684,7 +14686,7 @@
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -14701,7 +14703,7 @@
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -14718,7 +14720,7 @@
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -14735,7 +14737,7 @@
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -14752,7 +14754,7 @@
       <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -14769,7 +14771,7 @@
       <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -14786,7 +14788,7 @@
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -28973,10 +28975,10 @@
       <c r="A10" s="7">
         <v>45597</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="C10" s="14"/>
+      <c r="C10" s="15"/>
       <c r="D10" s="9">
         <v>45597</v>
       </c>
@@ -29237,10 +29239,10 @@
       <c r="A12" s="7">
         <v>45597</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="C12" s="14"/>
+      <c r="C12" s="15"/>
       <c r="D12" s="9">
         <v>45597</v>
       </c>
@@ -29743,10 +29745,10 @@
       <c r="A16" s="7">
         <v>45597</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="C16" s="14"/>
+      <c r="C16" s="15"/>
       <c r="D16" s="9">
         <v>45597</v>
       </c>
@@ -30584,10 +30586,10 @@
       <c r="A23" s="7">
         <v>45597</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="C23" s="14"/>
+      <c r="C23" s="15"/>
       <c r="D23" s="9">
         <v>45597</v>
       </c>
@@ -30606,10 +30608,10 @@
         <v>291</v>
       </c>
       <c r="K23" s="8"/>
-      <c r="L23" s="13" t="s">
+      <c r="L23" s="14" t="s">
         <v>292</v>
       </c>
-      <c r="M23" s="14"/>
+      <c r="M23" s="15"/>
       <c r="N23" s="8"/>
       <c r="O23" s="8" t="s">
         <v>293</v>
